--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1875667.535930452</v>
+        <v>1869231.011354865</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516696</v>
+        <v>2280223.653892726</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8952984.309765572</v>
+        <v>8952394.330375152</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>335.2122228055293</v>
       </c>
       <c r="E2" t="n">
-        <v>299.5716750511309</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201227014</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -798,7 +798,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>217.8523047048137</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>63.28451638601879</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>274.4677252392049</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -911,7 +911,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>23.13448126952764</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>35.81807017822179</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.6435372072307</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>108.1045920014102</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -1069,10 +1069,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>130.2648764202384</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>325.7863799811831</v>
+        <v>304.0074039714629</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>11.61260049965499</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362799</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>234.8656199178707</v>
+        <v>58.09782089051313</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.4247543599388</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>82.99846957177853</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442491</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338909</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>60.68516871456102</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>173.7336933604215</v>
+        <v>137.2317614635182</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D14" t="n">
-        <v>68.0674918059824</v>
+        <v>244.2933931670309</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362799</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94.20162526364322</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.9984695717785</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442488</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681696</v>
+        <v>95.49320096681701</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>82.84545313338906</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>60.68516871456099</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901691</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>37.83365041607472</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F17" t="n">
         <v>282.3655247697376</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422877397</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658114</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V19" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665148</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799142</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F20" t="n">
         <v>282.3655247697376</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W20" t="n">
         <v>236.929075365811</v>
@@ -2147,7 +2147,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V22" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F23" t="n">
         <v>282.3655247697376</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U23" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W23" t="n">
         <v>236.929075365811</v>
@@ -2384,7 +2384,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V25" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049596</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.7098784815733</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093891</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227893</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619113</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126124</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841672</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564646</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838904</v>
+        <v>24.17382596575021</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828916</v>
+        <v>52.06849973565033</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434679</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970378</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308072</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086858</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435641</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.7458822158953</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431749</v>
+        <v>70.57601873167866</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459989</v>
+        <v>55.72314698196107</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643962</v>
+        <v>41.29686219380079</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931873</v>
+        <v>41.2233042466799</v>
       </c>
       <c r="F34" t="n">
-        <v>49.416218139086</v>
+        <v>42.97275566644717</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147813</v>
+        <v>53.79159358883931</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805018</v>
+        <v>41.14384575541135</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922211</v>
+        <v>18.98356133658328</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367802</v>
+        <v>9.882059701039196</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920534</v>
+        <v>88.00800320656651</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407386</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678085</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546744</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754245</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221371</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988135</v>
       </c>
     </row>
     <row r="35">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -4040,7 +4040,7 @@
         <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006892</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>368.0696968627648</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="C2" t="n">
-        <v>368.0696968627648</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="D2" t="n">
-        <v>368.0696968627648</v>
+        <v>1736.564132962858</v>
       </c>
       <c r="E2" t="n">
-        <v>65.47204529596598</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="F2" t="n">
-        <v>52.6180108663478</v>
+        <v>917.08616960938</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475503</v>
+        <v>503.9234140973831</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475503</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475503</v>
+        <v>186.1530196651667</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222169</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407457</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="M2" t="n">
-        <v>1434.057092150839</v>
+        <v>588.4870060424395</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.743368845423</v>
+        <v>1102.089684652129</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737752</v>
+        <v>1542.129285544458</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737752</v>
+        <v>1890.316777675979</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678802</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="T2" t="n">
-        <v>1784.768812238219</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="U2" t="n">
-        <v>1529.016082672817</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="V2" t="n">
-        <v>1529.016082672817</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="W2" t="n">
-        <v>1158.017047641105</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="X2" t="n">
-        <v>768.5644425741617</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="Y2" t="n">
-        <v>768.5644425741617</v>
+        <v>2075.162337816928</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813229</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414151</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628955</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737832</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284344</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475503</v>
+        <v>154.618228976066</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475503</v>
+        <v>154.618228976066</v>
       </c>
       <c r="L3" t="n">
-        <v>527.0617452930683</v>
+        <v>154.618228976066</v>
       </c>
       <c r="M3" t="n">
-        <v>714.3825334202794</v>
+        <v>642.3356118811511</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.641318430373</v>
+        <v>1155.938290490841</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021354</v>
+        <v>1669.54096910053</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635816</v>
+        <v>2051.245294714992</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535685</v>
+        <v>1916.314617614861</v>
       </c>
       <c r="T3" t="n">
-        <v>2015.935249535685</v>
+        <v>1739.33080581377</v>
       </c>
       <c r="U3" t="n">
-        <v>1805.872106214327</v>
+        <v>1529.267662492411</v>
       </c>
       <c r="V3" t="n">
-        <v>1583.332104585394</v>
+        <v>1306.727660863478</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996765</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.303337346777</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222843</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>657.9068668276792</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="C4" t="n">
-        <v>487.7017488936684</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="D4" t="n">
-        <v>332.0686357961832</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="E4" t="n">
-        <v>332.0686357961832</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="F4" t="n">
-        <v>332.0686357961832</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="G4" t="n">
-        <v>332.0686357961832</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="H4" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400802</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783442</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>421.792425708026</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>155.8130805288502</v>
       </c>
       <c r="W4" t="n">
-        <v>881.0189280110359</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="X4" t="n">
-        <v>881.0189280110359</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="Y4" t="n">
-        <v>657.9068668276792</v>
+        <v>41.50324675633856</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1729.148522214888</v>
+        <v>1797.92221131268</v>
       </c>
       <c r="C5" t="n">
-        <v>1335.973020717819</v>
+        <v>1797.92221131268</v>
       </c>
       <c r="D5" t="n">
-        <v>1335.973020717819</v>
+        <v>1412.481082529348</v>
       </c>
       <c r="E5" t="n">
-        <v>1335.973020717819</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="F5" t="n">
-        <v>919.0785822477965</v>
+        <v>593.0031191758706</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357996</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>114.5970879866914</v>
       </c>
       <c r="L5" t="n">
-        <v>760.5254089586743</v>
+        <v>607.9173797052202</v>
       </c>
       <c r="M5" t="n">
-        <v>1298.784193968768</v>
+        <v>1121.52005831491</v>
       </c>
       <c r="N5" t="n">
-        <v>1826.59547760623</v>
+        <v>1635.122736924599</v>
       </c>
       <c r="O5" t="n">
-        <v>1826.59547760623</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="S5" t="n">
-        <v>2008.269414678802</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="T5" t="n">
-        <v>2008.269414678802</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="U5" t="n">
-        <v>1752.516685113401</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="V5" t="n">
-        <v>1729.148522214888</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="W5" t="n">
-        <v>1729.148522214888</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="X5" t="n">
-        <v>1729.148522214888</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="Y5" t="n">
-        <v>1729.148522214888</v>
+        <v>2075.162337816928</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>790.7440950022776</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>640.0898645623698</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>510.0008971838502</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>373.5544062947379</v>
+        <v>423.6795411888298</v>
       </c>
       <c r="F6" t="n">
-        <v>249.1226001778697</v>
+        <v>299.2477350719616</v>
       </c>
       <c r="G6" t="n">
-        <v>129.0627822497341</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284344</v>
+        <v>90.89050074442697</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475503</v>
+        <v>154.618228976066</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569815</v>
+        <v>474.3573750382924</v>
       </c>
       <c r="L6" t="n">
-        <v>363.2348054569815</v>
+        <v>474.3573750382924</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653889</v>
+        <v>474.3573750382924</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875482</v>
+        <v>921.5731989359502</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466463</v>
+        <v>1435.17587754564</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182861</v>
+        <v>1840.797246262037</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635816</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="S6" t="n">
-        <v>2150.865926635816</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="T6" t="n">
-        <v>1973.882114834724</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1763.818971513366</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1541.278969884433</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1311.16172401772</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1121.854646367732</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>942.540429443239</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>944.9426819363074</v>
+        <v>811.3695860451248</v>
       </c>
       <c r="C7" t="n">
-        <v>835.7461243591254</v>
+        <v>811.3695860451248</v>
       </c>
       <c r="D7" t="n">
-        <v>680.1130112616401</v>
+        <v>655.7364729476396</v>
       </c>
       <c r="E7" t="n">
-        <v>524.5541991208426</v>
+        <v>500.1776608068422</v>
       </c>
       <c r="F7" t="n">
-        <v>367.2282643338155</v>
+        <v>342.8517260198151</v>
       </c>
       <c r="G7" t="n">
-        <v>198.974210433261</v>
+        <v>174.5976721192607</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475503</v>
+        <v>174.5976721192607</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400802</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783442</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y7" t="n">
-        <v>944.9426819363074</v>
+        <v>811.3695860451248</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>610.2099977937452</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C8" t="n">
-        <v>610.2099977937452</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D8" t="n">
-        <v>610.2099977937452</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E8" t="n">
-        <v>207.6264729102897</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4808,16 +4808,16 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>666.9511603618604</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1212.952060406441</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N8" t="n">
-        <v>1740.763344043903</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1339.781895001287</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1339.781895001287</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>1339.781895001287</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y8" t="n">
-        <v>1010.704743505142</v>
+        <v>2058.57031924742</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.7100132738371</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>358.5048953398264</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
         <v>47.31297010154361</v>
@@ -4993,19 +4993,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>830.7030395665587</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X10" t="n">
-        <v>937.0300931484951</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.9180319651384</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1467.291089243225</v>
+        <v>1625.315396040535</v>
       </c>
       <c r="C11" t="n">
-        <v>1145.91186289235</v>
+        <v>1303.936169689659</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>990.2913160525211</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550881</v>
+        <v>659.5040663152595</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312598</v>
+        <v>314.405902991431</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654568</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="V11" t="n">
-        <v>2438.340323662383</v>
+        <v>2895.567390345212</v>
       </c>
       <c r="W11" t="n">
-        <v>2438.340323662383</v>
+        <v>2596.364630459693</v>
       </c>
       <c r="X11" t="n">
-        <v>2120.683993741633</v>
+        <v>2278.708300538943</v>
       </c>
       <c r="Y11" t="n">
-        <v>1795.989559808428</v>
+        <v>1954.013866605738</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O12" t="n">
         <v>1740.468202408463</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>292.7837755129683</v>
+        <v>474.8748941930975</v>
       </c>
       <c r="C13" t="n">
-        <v>292.7837755129683</v>
+        <v>376.4660514052805</v>
       </c>
       <c r="D13" t="n">
-        <v>208.9469375616769</v>
+        <v>292.6292134539891</v>
       </c>
       <c r="E13" t="n">
-        <v>208.9469375616769</v>
+        <v>292.6292134539891</v>
       </c>
       <c r="F13" t="n">
-        <v>123.4172779208437</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208437</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208436</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593279</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1332.809865128935</v>
       </c>
       <c r="U13" t="n">
-        <v>974.196763084509</v>
+        <v>1194.191924256694</v>
       </c>
       <c r="V13" t="n">
-        <v>780.0136930515273</v>
+        <v>1000.008854223712</v>
       </c>
       <c r="W13" t="n">
-        <v>568.4795661288988</v>
+        <v>788.4747273010835</v>
       </c>
       <c r="X13" t="n">
-        <v>406.1955190580757</v>
+        <v>626.1906802302603</v>
       </c>
       <c r="Y13" t="n">
-        <v>406.1955190580757</v>
+        <v>474.8748941930975</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1788.332906758807</v>
+        <v>1558.431545602418</v>
       </c>
       <c r="C14" t="n">
-        <v>1466.953680407931</v>
+        <v>1237.052319251542</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>990.2913160525211</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>659.5040663152595</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185752</v>
+        <v>314.405902991431</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>3011.239105293021</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V14" t="n">
-        <v>2740.928571142733</v>
+        <v>2499.985069341892</v>
       </c>
       <c r="W14" t="n">
-        <v>2441.725811257214</v>
+        <v>2200.782309456373</v>
       </c>
       <c r="X14" t="n">
-        <v>2441.725811257214</v>
+        <v>1883.125979535623</v>
       </c>
       <c r="Y14" t="n">
-        <v>2117.03137732401</v>
+        <v>1558.431545602418</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>207.7175872278004</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>691.2836731261136</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1319.055322752795</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N15" t="n">
-        <v>1974.833293963354</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>387.3198695621201</v>
+        <v>472.9238301596413</v>
       </c>
       <c r="C16" t="n">
-        <v>387.3198695621201</v>
+        <v>472.9238301596413</v>
       </c>
       <c r="D16" t="n">
-        <v>387.3198695621201</v>
+        <v>389.0869922083499</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5573325675165</v>
+        <v>389.0869922083499</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675165</v>
+        <v>303.5573325675167</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>207.099553813156</v>
       </c>
       <c r="H16" t="n">
         <v>123.4172779208438</v>
@@ -5434,22 +5434,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457679</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>1201.790056457679</v>
+        <v>1111.469533735363</v>
       </c>
       <c r="V16" t="n">
-        <v>1007.606986424697</v>
+        <v>1111.469533735363</v>
       </c>
       <c r="W16" t="n">
-        <v>796.0728595020684</v>
+        <v>899.9354068127348</v>
       </c>
       <c r="X16" t="n">
-        <v>633.7888124312453</v>
+        <v>737.6513597419116</v>
       </c>
       <c r="Y16" t="n">
-        <v>482.4730263940826</v>
+        <v>586.3355737047488</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975459</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803439</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,7 +5549,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5598,19 +5598,19 @@
         <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.156408878212</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.93438008877</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5683,40 +5683,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797591</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5789,13 +5789,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5835,19 +5835,19 @@
         <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>381.858273766342</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>1009.629923393023</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N21" t="n">
-        <v>1665.407894603582</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2181.928177194563</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2181.928177194563</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5914,46 +5914,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960401</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567326</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -5999,7 +5999,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,28 +6008,28 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6069,22 +6069,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>346.0196676966397</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>973.7913173233209</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>1629.56928853388</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>273.010538436486</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O25" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P25" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6218,10 +6218,10 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6230,43 +6230,43 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343938</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388518</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755554</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,22 +6297,22 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746015</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225736</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904108</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351193</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
         <v>1380.047947122475</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6455,22 +6455,22 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563783</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>606.9665031662618</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614364</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388518</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
         <v>2360.20170202598</v>
@@ -6479,25 +6479,25 @@
         <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508977</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
         <v>2784.073622420327</v>
@@ -6534,22 +6534,22 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755025</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232842</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225736</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.050822590411</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351193</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
         <v>1380.047947122475</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222132</v>
+        <v>1743.798875918592</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654427</v>
+        <v>1464.542485303047</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.02046740124</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463677</v>
+        <v>904.3560533993095</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057098</v>
+        <v>601.3807258108121</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230773</v>
+        <v>302.1370811803401</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835552</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076167</v>
+        <v>67.5551356023452</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>323.8570290861559</v>
       </c>
       <c r="K32" t="n">
-        <v>621.3530052915028</v>
+        <v>682.8393851136177</v>
       </c>
       <c r="L32" t="n">
-        <v>1114.673297010032</v>
+        <v>1176.159676832146</v>
       </c>
       <c r="M32" t="n">
-        <v>1765.947289781682</v>
+        <v>1833.812697451709</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.758573419144</v>
+        <v>2361.623981089172</v>
       </c>
       <c r="O32" t="n">
-        <v>2733.798174311473</v>
+        <v>2801.6635819815</v>
       </c>
       <c r="P32" t="n">
-        <v>3187.258759170065</v>
+        <v>3192.911219976312</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.75678011726</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.75678011726</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908499</v>
+        <v>3325.162335939836</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.18438039728</v>
+        <v>3215.580844380778</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696902</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281945</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131757</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154199</v>
+        <v>2312.946108946338</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004164</v>
+        <v>2030.374510748464</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898327</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076167</v>
+        <v>67.5551356023452</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220726</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965139</v>
+        <v>365.6713676929744</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918675</v>
+        <v>309.3853606404884</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237467</v>
+        <v>267.671358424528</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123136</v>
+        <v>226.0316571652554</v>
       </c>
       <c r="F34" t="n">
-        <v>204.142889754651</v>
+        <v>182.6248332597532</v>
       </c>
       <c r="G34" t="n">
-        <v>143.299398783461</v>
+        <v>128.2898902407236</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431936</v>
+        <v>86.73045008374245</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076167</v>
+        <v>67.5551356023452</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076167</v>
+        <v>143.5810516071627</v>
       </c>
       <c r="K34" t="n">
-        <v>256.6556820777736</v>
+        <v>337.0682132920871</v>
       </c>
       <c r="L34" t="n">
-        <v>526.0564146786435</v>
+        <v>501.1958531658869</v>
       </c>
       <c r="M34" t="n">
-        <v>817.6210857439776</v>
+        <v>799.1395520791334</v>
       </c>
       <c r="N34" t="n">
-        <v>1000.810719775187</v>
+        <v>982.3291861103426</v>
       </c>
       <c r="O34" t="n">
-        <v>1268.788579543965</v>
+        <v>1256.686073727033</v>
       </c>
       <c r="P34" t="n">
-        <v>1388.664745320543</v>
+        <v>1376.562239503612</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873663</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387764</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451838</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501597</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250232</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395535</v>
+        <v>835.7257283273723</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000955</v>
+        <v>666.3144371400747</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012443</v>
+        <v>546.1532258045827</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584508</v>
+        <v>436.9602755027508</v>
       </c>
     </row>
     <row r="35">
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,7 +6971,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7023,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7102,10 +7102,10 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
         <v>969.3241577214669</v>
@@ -7166,25 +7166,25 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411548</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,13 +7193,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7336,10 +7336,10 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N40" t="n">
         <v>806.6193906797589</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,28 +7433,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>96.81867335321709</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.156408878212</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7579,40 +7579,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655146</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P43" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7631,13 +7631,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
         <v>68.77950792924226</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7734,16 +7734,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7810,7 +7810,7 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960415</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M46" t="n">
         <v>629.009399256734</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321651</v>
+        <v>193.514577203597</v>
       </c>
       <c r="N2" t="n">
-        <v>452.842003150495</v>
+        <v>667.9090757920161</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>281.6000393495252</v>
+        <v>585.0309431655595</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886045</v>
+        <v>604.1626973083986</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431209</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>216.8905660381796</v>
       </c>
       <c r="L5" t="n">
-        <v>368.8013218796123</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321651</v>
+        <v>668.5156360519593</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920161</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8301,13 +8301,13 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>210.3493810477033</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886045</v>
+        <v>537.1052683063463</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431209</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8456,19 +8456,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>270.4260094517309</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8529,10 +8529,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8541,16 +8541,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>179.0738312465423</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,22 +8766,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -8942,7 +8942,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9006,25 +9006,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>236.6660863673584</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9246,22 +9246,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>290.5921503773105</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>342.4574509263909</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9483,22 +9483,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>291.5199566763059</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9717,25 +9717,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>262.5710112738847</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095471</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>454.5321323046924</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118433</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>117.494503443537</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11382,7 +11382,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>691.2645480167034</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372795</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362807</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>32.74180889091417</v>
+        <v>209.5096079182718</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465755</v>
+        <v>82.92491162465764</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>95.49320096681704</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901693</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>37.77239808536461</v>
+        <v>74.27432998226801</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>242.4409132947846</v>
+        <v>66.21501193373612</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372792</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362804</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.07600084601309</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>97.42475435993877</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177844</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465761</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>173.6724410297115</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-2.025899448199198e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23969,10 +23969,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="D20" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>786298.067366362</v>
+        <v>785997.2935594819</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>786298.067366362</v>
+        <v>785997.2935594819</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>698148.0937170789</v>
+        <v>698148.0937170787</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>698148.093717079</v>
+        <v>698148.0937170787</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>788332.6587935905</v>
+        <v>788332.6587935906</v>
       </c>
     </row>
     <row r="9">
@@ -26317,43 +26317,43 @@
         <v>486896.8808520635</v>
       </c>
       <c r="D2" t="n">
-        <v>486896.8808520634</v>
+        <v>486896.8808520635</v>
       </c>
       <c r="E2" t="n">
-        <v>430269.3632458819</v>
+        <v>430269.3632458813</v>
       </c>
       <c r="F2" t="n">
-        <v>430269.3632458819</v>
+        <v>430269.3632458813</v>
       </c>
       <c r="G2" t="n">
+        <v>486896.8808520629</v>
+      </c>
+      <c r="H2" t="n">
         <v>486896.8808520628</v>
       </c>
-      <c r="H2" t="n">
-        <v>486896.8808520627</v>
-      </c>
       <c r="I2" t="n">
-        <v>486896.8808520627</v>
+        <v>486896.8808520628</v>
       </c>
       <c r="J2" t="n">
         <v>486896.8808520632</v>
       </c>
       <c r="K2" t="n">
-        <v>486896.8808520633</v>
+        <v>486896.8808520632</v>
       </c>
       <c r="L2" t="n">
-        <v>486896.8808520632</v>
+        <v>486896.880852063</v>
       </c>
       <c r="M2" t="n">
+        <v>486896.8808520627</v>
+      </c>
+      <c r="N2" t="n">
         <v>486896.8808520625</v>
       </c>
-      <c r="N2" t="n">
-        <v>486896.8808520627</v>
-      </c>
       <c r="O2" t="n">
-        <v>486896.8808520626</v>
+        <v>486896.8808520628</v>
       </c>
       <c r="P2" t="n">
-        <v>486896.8808520627</v>
+        <v>486896.8808520628</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918561</v>
+        <v>173858.6570340556</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062169</v>
+        <v>22558.42953401305</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668194</v>
+        <v>47425.32553668203</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399296</v>
       </c>
       <c r="K3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728538</v>
+        <v>62456.24177539655</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962297</v>
+        <v>43252.52447081111</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277123</v>
+        <v>27767.69404277111</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892384</v>
+        <v>184487.2052585812</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892384</v>
+        <v>184487.2052585812</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.78851589427</v>
+        <v>86988.78851589418</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.78851589427</v>
+        <v>86988.78851589421</v>
       </c>
       <c r="G4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="H4" t="n">
         <v>134747.7050074764</v>
       </c>
       <c r="I4" t="n">
-        <v>134747.7050074765</v>
+        <v>134747.7050074764</v>
       </c>
       <c r="J4" t="n">
         <v>135498.1974718596</v>
       </c>
       <c r="K4" t="n">
-        <v>135498.1974718596</v>
+        <v>135498.1974718595</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623214</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
       </c>
       <c r="N4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="O4" t="n">
         <v>134747.7050074764</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.0675348173</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.0675348173</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984051</v>
       </c>
       <c r="F5" t="n">
         <v>53186.01969984052</v>
@@ -26488,16 +26488,16 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315428</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59931.82663095524</v>
+        <v>63380.95102460935</v>
       </c>
       <c r="C6" t="n">
-        <v>242136.7749228113</v>
+        <v>237239.608058665</v>
       </c>
       <c r="D6" t="n">
-        <v>236697.2329469871</v>
+        <v>228960.9437235958</v>
       </c>
       <c r="E6" t="n">
-        <v>177971.9935561025</v>
+        <v>177762.2620094126</v>
       </c>
       <c r="F6" t="n">
-        <v>290094.5550301471</v>
+        <v>289884.823483457</v>
       </c>
       <c r="G6" t="n">
         <v>246554.0809923848</v>
       </c>
       <c r="H6" t="n">
-        <v>293979.4065290666</v>
+        <v>293979.4065290667</v>
       </c>
       <c r="I6" t="n">
-        <v>293979.4065290665</v>
+        <v>293979.4065290667</v>
       </c>
       <c r="J6" t="n">
-        <v>80937.48893178136</v>
+        <v>87453.77408635453</v>
       </c>
       <c r="K6" t="n">
         <v>287739.6381262842</v>
       </c>
       <c r="L6" t="n">
-        <v>232557.0491916632</v>
+        <v>228508.2119811907</v>
       </c>
       <c r="M6" t="n">
-        <v>251778.5770694435</v>
+        <v>250726.8820582554</v>
       </c>
       <c r="N6" t="n">
-        <v>293979.4065290666</v>
+        <v>293979.4065290664</v>
       </c>
       <c r="O6" t="n">
-        <v>266211.7124862953</v>
+        <v>266211.7124862956</v>
       </c>
       <c r="P6" t="n">
-        <v>293979.4065290666</v>
+        <v>293979.4065290667</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.790584454232</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.790584454232</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,16 +26808,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
+        <v>917.060736844378</v>
+      </c>
+      <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
-      <c r="K4" t="n">
-        <v>917.0607368443781</v>
-      </c>
       <c r="L4" t="n">
-        <v>869.3443530095209</v>
+        <v>844.4391950293151</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.28165692085254</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346391</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660672</v>
+        <v>78.07030221924569</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155136</v>
+        <v>17.58004954287478</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346389</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.790584454232</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.7163838348572</v>
+        <v>72.6215418150631</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773719</v>
+        <v>659.3622249971659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.2217133240722</v>
+        <v>117.126871304278</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.28165692085254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346391</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.790584454232</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.7163838348572</v>
+        <v>72.6215418150631</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>46.37449468996965</v>
       </c>
       <c r="E2" t="n">
-        <v>98.98601458349003</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.66263604342937</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>9.963768703232319</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27552,10 +27552,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27588,22 +27588,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>217.2125816621154</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>122.022073015078</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>315.5512599339892</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>51.59637205718329</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758499</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>60.39847475326046</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27840,7 +27840,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>90.61606415128463</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>66.73942200742181</v>
+        <v>88.51839801714198</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28065,19 +28065,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>220.1269184951917</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473187</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="17">
@@ -28755,19 +28755,19 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082768</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28986,10 +28986,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>5.636002634528182</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29001,10 +29001,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29071,7 +29071,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29217,11 +29217,11 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>5.636002634528126</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.71049010668797</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431647</v>
+        <v>30.27223765901132</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>30.27223765901169</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,40 +29746,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="K32" t="n">
-        <v>48.65992738833449</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000708</v>
+        <v>43.49509683160585</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>106.8683420224798</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>94.97643844045591</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727096</v>
       </c>
     </row>
     <row r="35">
@@ -30174,13 +30174,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>5.636002634529063</v>
@@ -30247,7 +30247,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30408,13 +30408,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30651,19 +30651,19 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>5.63600263452949</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P43" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30736,7 +30736,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -30882,10 +30882,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>5.636002634529603</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M46" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634529632</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344379</v>
+        <v>43.78952560586968</v>
       </c>
       <c r="N2" t="n">
-        <v>303.7235118127109</v>
+        <v>518.790584454232</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>189.2129173002133</v>
+        <v>492.6438211162476</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344379</v>
+        <v>518.790584454232</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.790584454232</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>73.83216285894225</v>
       </c>
       <c r="L5" t="n">
-        <v>215.5531521491206</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344379</v>
+        <v>518.790584454232</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.790584454232</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35021,13 +35021,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>117.9622589983914</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344379</v>
+        <v>451.7331554521796</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.790584454232</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35176,19 +35176,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>117.1778397212393</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35261,16 +35261,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>93.70171839237568</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.0038249225728</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326901</v>
+        <v>192.16534853269</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488435</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>147.0691510340251</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257283</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35811,19 +35811,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N16" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488438</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>200.5318035203923</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>249.769892037502</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,19 +36051,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905433</v>
       </c>
       <c r="O19" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.636002634527946</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>200.5318035203919</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,10 +36282,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565482</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>131.7547461184303</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449122</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
         <v>444.4844453457863</v>
@@ -36437,25 +36437,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>172.5106644169664</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,7 +36525,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094869</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36534,7 +36534,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.16725411684045</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,10 +36598,10 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36610,13 +36610,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700705</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>392.8806780907913</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>563.4149484039233</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
@@ -36853,7 +36853,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>362.1450102553805</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>258.8908014987986</v>
       </c>
       <c r="K32" t="n">
-        <v>411.2683678201141</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511623</v>
+        <v>664.2959804238011</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37084,10 +37084,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066585</v>
+        <v>395.1996343381936</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111299</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>247.8874524576767</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>76.7938545503207</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868808</v>
+        <v>195.4415774595196</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220908</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528627</v>
+        <v>300.9532312255016</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>277.1281693097885</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.43320245060839</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37470,13 +37470,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P37" t="n">
         <v>126.7230387724872</v>
@@ -37543,7 +37543,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317805</v>
       </c>
       <c r="L38" t="n">
         <v>498.303324968211</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37704,13 +37704,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>35.0500461102036</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,19 +37947,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094883</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P43" t="n">
-        <v>249.385018246236</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
         <v>186.7126870110591</v>
@@ -38102,7 +38102,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>598.8774259673916</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,10 +38178,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>171.4214974565496</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5332807683763</v>
+        <v>193.8093140873216</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
